--- a/Convolução/Cálculos de Convolução.xlsx
+++ b/Convolução/Cálculos de Convolução.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\Faculdade\Processamento Digital de Sinais\Convolução\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422AB125-E1F1-4293-A4B4-5B3211F0F19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3327B-22B4-47D0-9E34-1670D76CA793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>x[n]</t>
   </si>
@@ -120,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +159,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -444,7 +456,7 @@
   <dimension ref="D2:T26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E40"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,6 +465,27 @@
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
@@ -514,23 +547,51 @@
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="12" t="s">
+      <c r="E5" s="16">
+        <v>-7</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-6</v>
+      </c>
+      <c r="G5" s="16">
+        <v>-5</v>
+      </c>
+      <c r="H5" s="16">
+        <v>-4</v>
+      </c>
+      <c r="I5" s="16">
+        <v>-3</v>
+      </c>
+      <c r="J5" s="16">
+        <v>-2</v>
+      </c>
+      <c r="K5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="M5" s="16">
+        <v>1</v>
+      </c>
+      <c r="N5" s="16">
+        <v>2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>3</v>
+      </c>
+      <c r="P5" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>5</v>
+      </c>
+      <c r="R5" s="16">
+        <v>6</v>
+      </c>
+      <c r="S5" s="16">
+        <v>7</v>
+      </c>
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="4:20" x14ac:dyDescent="0.25">
@@ -580,9 +641,6 @@
         <v>0</v>
       </c>
       <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -621,7 +679,6 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
@@ -640,28 +697,54 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
     </row>
     <row r="9" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4">
+        <v>7</v>
+      </c>
+      <c r="M9" s="4">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4">
+        <v>9</v>
+      </c>
+      <c r="O9" s="4">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>12</v>
+      </c>
+      <c r="R9" s="4">
+        <v>13</v>
+      </c>
+      <c r="S9" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
@@ -724,10 +807,6 @@
         <v>0</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -806,7 +885,7 @@
   <dimension ref="D2:T25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,6 +893,27 @@
     <row r="2" spans="4:20" x14ac:dyDescent="0.25">
       <c r="E2" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="4:20" x14ac:dyDescent="0.25">
@@ -892,23 +992,51 @@
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="12" t="s">
+      <c r="E5" s="1">
+        <v>-7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
         <v>5</v>
       </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7</v>
+      </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="4:20" x14ac:dyDescent="0.25">
@@ -958,9 +1086,6 @@
         <v>1</v>
       </c>
       <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -999,7 +1124,6 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
@@ -1025,20 +1149,48 @@
       <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>12</v>
+      </c>
+      <c r="R9" s="1">
+        <v>13</v>
+      </c>
+      <c r="S9" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
@@ -1048,64 +1200,60 @@
         <f t="shared" ref="E10:T10" si="0" xml:space="preserve"> (E6*$E$7)+(F6*$F$7)+(G6*$G$7)+(H6*$H$7)+(I6*$I$7)+(J6*$J$7)+(K6*$K$7)+(L6*$L$7)</f>
         <v>0.125</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
+      <c r="F10" s="15">
+        <f t="shared" ref="F10" si="1" xml:space="preserve"> (F6*$E$7)+(G6*$F$7)+(H6*$G$7)+(I6*$H$7)+(J6*$I$7)+(K6*$J$7)+(L6*$K$7)+(M6*$L$7)</f>
         <v>0.375</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
+      <c r="G10" s="15">
+        <f t="shared" ref="G10" si="2" xml:space="preserve"> (G6*$E$7)+(H6*$F$7)+(I6*$G$7)+(J6*$H$7)+(K6*$I$7)+(L6*$J$7)+(M6*$K$7)+(N6*$L$7)</f>
         <v>0.75</v>
       </c>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10" si="3" xml:space="preserve"> (H6*$E$7)+(I6*$F$7)+(J6*$G$7)+(K6*$H$7)+(L6*$I$7)+(M6*$J$7)+(N6*$K$7)+(O6*$L$7)</f>
         <v>1.25</v>
       </c>
-      <c r="I10" s="9">
-        <f t="shared" si="0"/>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10" si="4" xml:space="preserve"> (I6*$E$7)+(J6*$F$7)+(K6*$G$7)+(L6*$H$7)+(M6*$I$7)+(N6*$J$7)+(O6*$K$7)+(P6*$L$7)</f>
         <v>1.875</v>
       </c>
-      <c r="J10" s="9">
-        <f t="shared" si="0"/>
+      <c r="J10" s="15">
+        <f t="shared" ref="J10" si="5" xml:space="preserve"> (J6*$E$7)+(K6*$F$7)+(L6*$G$7)+(M6*$H$7)+(N6*$I$7)+(O6*$J$7)+(P6*$K$7)+(Q6*$L$7)</f>
         <v>2.625</v>
       </c>
-      <c r="K10" s="9">
-        <f t="shared" si="0"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10" si="6" xml:space="preserve"> (K6*$E$7)+(L6*$F$7)+(M6*$G$7)+(N6*$H$7)+(O6*$I$7)+(P6*$J$7)+(Q6*$K$7)+(R6*$L$7)</f>
         <v>3.5</v>
       </c>
       <c r="L10" s="15">
-        <f xml:space="preserve"> (L6*$E$7)+(M6*$F$7)+(N6*$G$7)+(O6*$H$7)+(P6*$I$7)+(Q6*$J$7)+(R6*$K$7)+(S6*$L$7)</f>
+        <f t="shared" ref="L10" si="7" xml:space="preserve"> (L6*$E$7)+(M6*$F$7)+(N6*$G$7)+(O6*$H$7)+(P6*$I$7)+(Q6*$J$7)+(R6*$K$7)+(S6*$L$7)</f>
         <v>4.5</v>
       </c>
-      <c r="M10" s="9">
-        <f xml:space="preserve"> (M6*$E$7)+(N6*$F$7)+(O6*$G$7)+(P6*$H$7)+(Q6*$I$7)+(R6*$J$7)+(S6*$K$7)+(T6*$L$7)</f>
-        <v>4.5</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="0"/>
+      <c r="M10" s="15">
+        <f t="shared" ref="M10" si="8" xml:space="preserve"> (M6*$E$7)+(N6*$F$7)+(O6*$G$7)+(P6*$H$7)+(Q6*$I$7)+(R6*$J$7)+(S6*$K$7)+(T6*$L$7)</f>
         <v>4.375</v>
       </c>
-      <c r="O10" s="9">
-        <f t="shared" si="0"/>
+      <c r="N10" s="15">
+        <f t="shared" ref="N10" si="9" xml:space="preserve"> (N6*$E$7)+(O6*$F$7)+(P6*$G$7)+(Q6*$H$7)+(R6*$I$7)+(S6*$J$7)+(T6*$K$7)+(U6*$L$7)</f>
         <v>4.125</v>
       </c>
-      <c r="P10" s="9">
-        <f t="shared" si="0"/>
+      <c r="O10" s="15">
+        <f t="shared" ref="O10" si="10" xml:space="preserve"> (O6*$E$7)+(P6*$F$7)+(Q6*$G$7)+(R6*$H$7)+(S6*$I$7)+(T6*$J$7)+(U6*$K$7)+(V6*$L$7)</f>
         <v>3.75</v>
       </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="0"/>
+      <c r="P10" s="15">
+        <f t="shared" ref="P10" si="11" xml:space="preserve"> (P6*$E$7)+(Q6*$F$7)+(R6*$G$7)+(S6*$H$7)+(T6*$I$7)+(U6*$J$7)+(V6*$K$7)+(W6*$L$7)</f>
         <v>3.25</v>
       </c>
-      <c r="R10" s="9">
-        <f t="shared" si="0"/>
+      <c r="Q10" s="15">
+        <f t="shared" ref="Q10" si="12" xml:space="preserve"> (Q6*$E$7)+(R6*$F$7)+(S6*$G$7)+(T6*$H$7)+(U6*$I$7)+(V6*$J$7)+(W6*$K$7)+(X6*$L$7)</f>
         <v>2.625</v>
       </c>
-      <c r="S10" s="9">
-        <f t="shared" si="0"/>
+      <c r="R10" s="15">
+        <f t="shared" ref="R10" si="13" xml:space="preserve"> (R6*$E$7)+(S6*$F$7)+(T6*$G$7)+(U6*$H$7)+(V6*$I$7)+(W6*$J$7)+(X6*$K$7)+(Y6*$L$7)</f>
         <v>1.875</v>
       </c>
-      <c r="T10" s="9">
-        <f t="shared" si="0"/>
+      <c r="S10" s="15">
+        <f t="shared" ref="S10" si="14" xml:space="preserve"> (S6*$E$7)+(T6*$F$7)+(U6*$G$7)+(V6*$H$7)+(W6*$I$7)+(X6*$J$7)+(Y6*$K$7)+(Z6*$L$7)</f>
         <v>1</v>
       </c>
     </row>
@@ -1230,7 +1378,7 @@
   <dimension ref="D2:T23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,6 +1387,15 @@
       <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
@@ -1248,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="G3" s="7">
         <v>0.25</v>
@@ -1276,11 +1433,26 @@
     </row>
     <row r="5" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="12" t="s">
+      <c r="E5" s="16">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>5</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>2</v>
+      </c>
+      <c r="K5" s="16">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="4:20" x14ac:dyDescent="0.25">
@@ -1343,7 +1515,24 @@
       <c r="E9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D10" s="7" t="s">
@@ -1354,7 +1543,7 @@
         <v>0.125</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" ref="F10:L10" si="0" xml:space="preserve"> (F6*$E$7)+(G6*$F$7)+(H6*$G$7)+(I6*$H$7)+(J6*$I$7)+(K6*$J$7)+(L6*$K$7)+(M6*$L$7)</f>
+        <f t="shared" ref="F10:K10" si="0" xml:space="preserve"> (F6*$E$7)+(G6*$F$7)+(H6*$G$7)+(I6*$H$7)+(J6*$I$7)+(K6*$J$7)+(L6*$K$7)+(M6*$L$7)</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="9">
